--- a/Depth Damaged States Attenuation Model - Orientation =  30, Width = 2, Circumference = Outside, Axial Location = 235/PCs at A.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  30, Width = 2, Circumference = Outside, Axial Location = 235/PCs at A.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.4198708829178779</v>
+        <v>0.1961220756769067</v>
       </c>
       <c r="C2">
-        <v>0.195739147214059</v>
+        <v>-0.06485173228922481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>0.209518991567914</v>
+        <v>-0.02388640907687959</v>
       </c>
       <c r="C3">
-        <v>-0.006037584292722883</v>
+        <v>0.06974258056070001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.1763788138405207</v>
+        <v>0.1647571527048808</v>
       </c>
       <c r="C4">
-        <v>-0.06495556495701495</v>
+        <v>-0.4950759626421482</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.03862816711025076</v>
+        <v>0.4525769931192624</v>
       </c>
       <c r="C5">
-        <v>-0.1455640378964783</v>
+        <v>-0.1418178784964038</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.07778944861748567</v>
+        <v>0.05989552487892703</v>
       </c>
       <c r="C6">
-        <v>0.3832341393648747</v>
+        <v>-0.61809799195521</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.1146764512389338</v>
+        <v>-0.2078159626212483</v>
       </c>
       <c r="C7">
-        <v>-0.2264196437592617</v>
+        <v>-0.1231988434537162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.4065360502937732</v>
+        <v>0.1510757951550181</v>
       </c>
       <c r="C8">
-        <v>-0.03008992915124801</v>
+        <v>-0.03485294608955587</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.2333405629909097</v>
+        <v>0.01830583395881504</v>
       </c>
       <c r="C9">
-        <v>0.02199704384127207</v>
+        <v>-0.277060781820498</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.08475584850683146</v>
+        <v>-0.04259082131373134</v>
       </c>
       <c r="C10">
-        <v>-0.5811047040111421</v>
+        <v>-0.1199422335001269</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.04076447312319927</v>
+        <v>-0.4465068753156167</v>
       </c>
       <c r="C11">
-        <v>-0.1105739385447178</v>
+        <v>0.1067219635991976</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.3382264110077197</v>
+        <v>-0.1993442257289801</v>
       </c>
       <c r="C12">
-        <v>0.1486196754726232</v>
+        <v>-0.1105976195842976</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.0703266639920672</v>
+        <v>0.3551887496772791</v>
       </c>
       <c r="C13">
-        <v>-0.2294420052883706</v>
+        <v>0.190562646136107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.1553108044531968</v>
+        <v>-0.3891290355271376</v>
       </c>
       <c r="C14">
-        <v>-0.05694562139496041</v>
+        <v>-0.3060598206697535</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>0.3979221776532553</v>
+        <v>-0.310331626721369</v>
       </c>
       <c r="C15">
-        <v>0.07719981375261692</v>
+        <v>-0.1046849667140943</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.266393373218075</v>
+        <v>0.202534291127168</v>
       </c>
       <c r="C16">
-        <v>-0.5204749503868371</v>
+        <v>-0.146246132538953</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.3559075324216139</v>
+        <v>-0.05686799852859882</v>
       </c>
       <c r="C17">
-        <v>-0.1788311527394997</v>
+        <v>-0.2240001309118766</v>
       </c>
     </row>
   </sheetData>
